--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId4"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
     <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>Password</t>
   </si>
@@ -260,6 +261,159 @@
   </si>
   <si>
     <t>FMS_ParamUser12</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Search Code</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>Collaterals defined</t>
+  </si>
+  <si>
+    <t>Application For</t>
+  </si>
+  <si>
+    <t>Facility Ref</t>
+  </si>
+  <si>
+    <t>CIF No</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Total value</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Finance Amount</t>
+  </si>
+  <si>
+    <t>Down Payment %</t>
+  </si>
+  <si>
+    <t>Down Payment to Vendor %</t>
+  </si>
+  <si>
+    <t>Limit Details Item</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Margin Rate</t>
+  </si>
+  <si>
+    <t>CV Value</t>
+  </si>
+  <si>
+    <t>Charges Details Code</t>
+  </si>
+  <si>
+    <t>Document Code</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Solicitor Name</t>
+  </si>
+  <si>
+    <t>Estimator Name</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>More Comments</t>
+  </si>
+  <si>
+    <t>DS01_326257</t>
+  </si>
+  <si>
+    <t>New Facility</t>
+  </si>
+  <si>
+    <t>DS01_862019</t>
+  </si>
+  <si>
+    <t>DS01_296063</t>
+  </si>
+  <si>
+    <t>01/05/2024</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>DS01_834966</t>
+  </si>
+  <si>
+    <t>DS01_681303</t>
+  </si>
+  <si>
+    <t>DS01_640861</t>
+  </si>
+  <si>
+    <t>583893_1</t>
+  </si>
+  <si>
+    <t>DS01_583893_1</t>
+  </si>
+  <si>
+    <t>Test Comments</t>
+  </si>
+  <si>
+    <t>583893_2</t>
+  </si>
+  <si>
+    <t>DS01_583893_2</t>
+  </si>
+  <si>
+    <t>DS01_583895</t>
+  </si>
+  <si>
+    <t>Application Level</t>
+  </si>
+  <si>
+    <t>Sublimit</t>
+  </si>
+  <si>
+    <t>DS01_582426</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>DS01_582480</t>
+  </si>
+  <si>
+    <t>DS01_582565</t>
+  </si>
+  <si>
+    <t>Import L/C</t>
+  </si>
+  <si>
+    <t>AT_RF_139</t>
+  </si>
+  <si>
+    <t>DS_AT_RF_139</t>
   </si>
 </sst>
 </file>
@@ -270,7 +424,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -340,8 +494,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -430,7 +603,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,8 +616,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -514,10 +688,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="6"/>
+    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="8"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="5"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
@@ -852,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1135,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -1381,7 +1589,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -1626,7 +1834,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -1649,24 +1857,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="39">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="39">
         <v>123</v>
       </c>
     </row>
@@ -1680,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1846,4 +2054,774 @@
   <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="45">
+      <c r="A1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="43">
+        <v>326257</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46">
+        <v>727</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46">
+        <v>320</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="44"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="43">
+        <v>862019</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="46">
+        <v>3451</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="43">
+        <v>296063</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46">
+        <v>727</v>
+      </c>
+      <c r="I4" s="46">
+        <v>369</v>
+      </c>
+      <c r="J4" s="46">
+        <v>320</v>
+      </c>
+      <c r="K4" s="46">
+        <v>2</v>
+      </c>
+      <c r="L4" s="46">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="46"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="46">
+        <v>1</v>
+      </c>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="48">
+        <v>1</v>
+      </c>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="44"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="43">
+        <v>834966</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="46">
+        <v>369</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46">
+        <v>727</v>
+      </c>
+      <c r="I5" s="46">
+        <v>369</v>
+      </c>
+      <c r="J5" s="46">
+        <v>320</v>
+      </c>
+      <c r="K5" s="46">
+        <v>2</v>
+      </c>
+      <c r="L5" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="46"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="46">
+        <v>1</v>
+      </c>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="44"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="43">
+        <v>681303</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="46">
+        <v>369</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46">
+        <v>727</v>
+      </c>
+      <c r="I6" s="46">
+        <v>369</v>
+      </c>
+      <c r="J6" s="46">
+        <v>320</v>
+      </c>
+      <c r="K6" s="46">
+        <v>2</v>
+      </c>
+      <c r="L6" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="46">
+        <v>1</v>
+      </c>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="48">
+        <v>1</v>
+      </c>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="44"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="43">
+        <v>640861</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46">
+        <v>727</v>
+      </c>
+      <c r="I7" s="46">
+        <v>369</v>
+      </c>
+      <c r="J7" s="46">
+        <v>320</v>
+      </c>
+      <c r="K7" s="46">
+        <v>2</v>
+      </c>
+      <c r="L7" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46">
+        <v>2</v>
+      </c>
+      <c r="P7" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46">
+        <v>1</v>
+      </c>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3679</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="50">
+        <v>583895</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="46">
+        <v>369</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46">
+        <v>727</v>
+      </c>
+      <c r="I10" s="46">
+        <v>369</v>
+      </c>
+      <c r="J10" s="46">
+        <v>320</v>
+      </c>
+      <c r="K10" s="46">
+        <v>2</v>
+      </c>
+      <c r="L10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="46">
+        <v>1</v>
+      </c>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="50">
+        <v>582426</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="48">
+        <v>1349</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44">
+        <v>2</v>
+      </c>
+      <c r="L11" s="44">
+        <v>500</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="50">
+        <v>582480</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="46">
+        <v>369</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46">
+        <v>727</v>
+      </c>
+      <c r="I12" s="46">
+        <v>369</v>
+      </c>
+      <c r="J12" s="46">
+        <v>320</v>
+      </c>
+      <c r="K12" s="46">
+        <v>2</v>
+      </c>
+      <c r="L12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="46"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="46">
+        <v>1</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44">
+        <v>3455</v>
+      </c>
+      <c r="W12" s="44">
+        <v>2</v>
+      </c>
+      <c r="X12" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="50">
+        <v>582565</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46">
+        <v>727</v>
+      </c>
+      <c r="I13" s="46">
+        <v>369</v>
+      </c>
+      <c r="J13" s="46">
+        <v>320</v>
+      </c>
+      <c r="K13" s="46">
+        <v>2</v>
+      </c>
+      <c r="L13" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44">
+        <v>2</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46">
+        <v>727</v>
+      </c>
+      <c r="I14" s="46">
+        <v>369</v>
+      </c>
+      <c r="J14" s="46">
+        <v>320</v>
+      </c>
+      <c r="K14" s="46">
+        <v>2</v>
+      </c>
+      <c r="L14" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="46">
+        <v>1</v>
+      </c>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
@@ -15,12 +15,12 @@
     <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
     <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>Password</t>
   </si>
@@ -344,9 +344,6 @@
     <t>More Comments</t>
   </si>
   <si>
-    <t>DS01_326257</t>
-  </si>
-  <si>
     <t>New Facility</t>
   </si>
   <si>
@@ -414,6 +411,12 @@
   </si>
   <si>
     <t>DS_AT_RF_139</t>
+  </si>
+  <si>
+    <t>DS01_870478</t>
+  </si>
+  <si>
+    <t>14/06/2023</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2061,12 +2064,13 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="45">
@@ -2157,40 +2161,52 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="43">
-        <v>326257</v>
+        <v>870478</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="46">
         <v>727</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="46">
+        <v>369</v>
+      </c>
       <c r="J2" s="46">
         <v>320</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="46">
+        <v>2</v>
+      </c>
       <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="M2" s="47" t="s">
+        <v>130</v>
+      </c>
       <c r="N2" s="46"/>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
-      <c r="R2" s="46"/>
+      <c r="R2" s="46">
+        <v>1</v>
+      </c>
       <c r="S2" s="46"/>
       <c r="T2" s="46"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
       <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
+      <c r="X2" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="48">
+        <v>1</v>
+      </c>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
       <c r="AB2" s="44"/>
@@ -2200,7 +2216,7 @@
         <v>862019</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="46">
         <v>3451</v>
@@ -2236,13 +2252,13 @@
         <v>296063</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
       <c r="F4" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="45"/>
       <c r="H4" s="46">
@@ -2261,7 +2277,7 @@
         <v>1000</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="44"/>
@@ -2284,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA4" s="45"/>
       <c r="AB4" s="44"/>
@@ -2294,7 +2310,7 @@
         <v>834966</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="46">
         <v>369</v>
@@ -2302,7 +2318,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="46">
@@ -2321,7 +2337,7 @@
         <v>10000</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5" s="46"/>
       <c r="O5" s="44"/>
@@ -2342,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="45"/>
       <c r="AB5" s="44"/>
@@ -2352,7 +2368,7 @@
         <v>681303</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="46">
         <v>369</v>
@@ -2360,7 +2376,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="46">
@@ -2379,7 +2395,7 @@
         <v>10000</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="44"/>
@@ -2402,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="45"/>
       <c r="AB6" s="44"/>
@@ -2412,13 +2428,13 @@
         <v>640861</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="46">
@@ -2437,7 +2453,7 @@
         <v>10000</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="46">
@@ -2463,10 +2479,10 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>116</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -2494,15 +2510,15 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="C9" s="44">
         <v>3679</v>
@@ -2538,19 +2554,19 @@
         <v>583895</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="46">
         <v>369</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>122</v>
-      </c>
       <c r="F10" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="46">
@@ -2569,7 +2585,7 @@
         <v>10000</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="44"/>
@@ -2590,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="44"/>
       <c r="AB10" s="44"/>
@@ -2600,13 +2616,13 @@
         <v>582426</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="48">
         <v>1349</v>
@@ -2621,7 +2637,7 @@
         <v>500</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
@@ -2640,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA11" s="44"/>
       <c r="AB11" s="44"/>
@@ -2650,7 +2666,7 @@
         <v>582480</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="46">
         <v>369</v>
@@ -2658,7 +2674,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="46">
@@ -2677,7 +2693,7 @@
         <v>10000</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="46"/>
       <c r="O12" s="44"/>
@@ -2702,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="Z12" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
@@ -2712,13 +2728,13 @@
         <v>582565</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="46">
@@ -2737,13 +2753,13 @@
         <v>10000</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R13" s="44"/>
       <c r="S13" s="44">
@@ -2760,23 +2776,23 @@
         <v>1</v>
       </c>
       <c r="Z13" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>128</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>129</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46">
@@ -2795,7 +2811,7 @@
         <v>10000</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
@@ -2816,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="Z14" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
   <si>
     <t>Password</t>
   </si>
@@ -347,9 +347,6 @@
     <t>New Facility</t>
   </si>
   <si>
-    <t>DS01_862019</t>
-  </si>
-  <si>
     <t>DS01_296063</t>
   </si>
   <si>
@@ -417,6 +414,15 @@
   </si>
   <si>
     <t>14/06/2023</t>
+  </si>
+  <si>
+    <t>DS01_1038991</t>
+  </si>
+  <si>
+    <t>Total Down Payment</t>
+  </si>
+  <si>
+    <t>Down Payment</t>
   </si>
 </sst>
 </file>
@@ -2061,19 +2067,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="19" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45">
+    <row r="1" spans="1:30" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -2120,51 +2130,57 @@
         <v>92</v>
       </c>
       <c r="P1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="AA1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -2187,57 +2203,79 @@
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="46"/>
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
-      <c r="R2" s="46">
-        <v>1</v>
-      </c>
-      <c r="S2" s="46"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="46">
+        <v>1</v>
+      </c>
       <c r="T2" s="46"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
       <c r="W2" s="48"/>
-      <c r="X2" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="44"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="44"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="43">
-        <v>862019</v>
+        <v>1038991</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="46">
-        <v>3451</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="44"/>
+      <c r="F3" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46">
+        <v>727</v>
+      </c>
+      <c r="I3" s="46">
+        <v>369</v>
+      </c>
+      <c r="J3" s="46">
+        <v>320</v>
+      </c>
+      <c r="K3" s="46">
+        <v>2</v>
+      </c>
+      <c r="L3" s="46">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="46"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="P3" s="44">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>1000</v>
+      </c>
       <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
+      <c r="S3" s="46">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46">
+        <v>1000</v>
+      </c>
       <c r="U3" s="44"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
@@ -2246,13 +2284,15 @@
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
       <c r="AB3" s="44"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="43">
         <v>296063</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -2274,43 +2314,49 @@
         <v>2</v>
       </c>
       <c r="L4" s="46">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="46">
-        <v>1</v>
-      </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="48">
-        <v>1</v>
-      </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="44"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="Q4" s="44">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="46">
+        <v>1</v>
+      </c>
+      <c r="T4" s="46">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="48">
+        <v>1</v>
+      </c>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="44"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="43">
         <v>834966</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="46">
         <v>369</v>
@@ -2337,38 +2383,40 @@
         <v>10000</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="46"/>
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
-      <c r="R5" s="46">
-        <v>1</v>
-      </c>
-      <c r="S5" s="46"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="46">
+        <v>1</v>
+      </c>
       <c r="T5" s="46"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="48"/>
-      <c r="X5" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="44"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="44"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="43">
         <v>681303</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="46">
         <v>369</v>
@@ -2395,40 +2443,42 @@
         <v>10000</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="46">
-        <v>1</v>
-      </c>
-      <c r="S6" s="46"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="46">
+        <v>1</v>
+      </c>
       <c r="T6" s="46"/>
-      <c r="U6" s="48">
-        <v>1</v>
-      </c>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="44"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="48">
+        <v>1</v>
+      </c>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="44"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="43">
         <v>640861</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -2453,36 +2503,38 @@
         <v>10000</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="46">
         <v>2</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46">
         <v>2</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46">
-        <v>1</v>
-      </c>
-      <c r="S7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46">
+        <v>1</v>
+      </c>
       <c r="T7" s="46"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
       <c r="W7" s="44"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>115</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -2509,16 +2561,18 @@
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="43" t="s">
+      <c r="B9" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>118</v>
       </c>
       <c r="C9" s="44">
         <v>3679</v>
@@ -2548,22 +2602,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="50">
         <v>583895</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="46">
         <v>369</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>106</v>
@@ -2585,44 +2641,46 @@
         <v>10000</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
-      <c r="R10" s="46">
-        <v>1</v>
-      </c>
-      <c r="S10" s="46"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="46">
+        <v>1</v>
+      </c>
       <c r="T10" s="46"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
       <c r="W10" s="44"/>
-      <c r="X10" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="50">
         <v>582426</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="48">
         <v>1349</v>
@@ -2637,7 +2695,7 @@
         <v>500</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
@@ -2649,24 +2707,26 @@
       <c r="U11" s="44"/>
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
-      <c r="X11" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="50">
         <v>582480</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="46">
         <v>369</v>
@@ -2693,42 +2753,44 @@
         <v>10000</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="46"/>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="46">
-        <v>1</v>
-      </c>
-      <c r="S12" s="46"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="46">
+        <v>1</v>
+      </c>
       <c r="T12" s="46"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44">
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44">
         <v>3455</v>
       </c>
-      <c r="W12" s="44">
+      <c r="Y12" s="44">
         <v>2</v>
       </c>
-      <c r="X12" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="Z12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="50">
         <v>582565</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -2753,40 +2815,42 @@
         <v>10000</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44">
         <v>2</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
-      <c r="X13" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>127</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>128</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -2811,31 +2875,33 @@
         <v>10000</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
-      <c r="R14" s="46">
-        <v>1</v>
-      </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="46">
+        <v>1</v>
+      </c>
+      <c r="T14" s="46"/>
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
-      <c r="X14" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="48">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId4"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
     <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId7"/>
+    <sheet name="DrawDownPayment_TestData" sheetId="10" r:id="rId7"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
   <si>
     <t>Password</t>
   </si>
@@ -347,69 +348,27 @@
     <t>New Facility</t>
   </si>
   <si>
-    <t>DS01_296063</t>
-  </si>
-  <si>
     <t>01/05/2024</t>
   </si>
   <si>
     <t>Approve</t>
   </si>
   <si>
-    <t>DS01_834966</t>
-  </si>
-  <si>
-    <t>DS01_681303</t>
-  </si>
-  <si>
-    <t>DS01_640861</t>
-  </si>
-  <si>
-    <t>583893_1</t>
-  </si>
-  <si>
-    <t>DS01_583893_1</t>
-  </si>
-  <si>
     <t>Test Comments</t>
   </si>
   <si>
-    <t>583893_2</t>
-  </si>
-  <si>
-    <t>DS01_583893_2</t>
-  </si>
-  <si>
-    <t>DS01_583895</t>
-  </si>
-  <si>
     <t>Application Level</t>
   </si>
   <si>
     <t>Sublimit</t>
   </si>
   <si>
-    <t>DS01_582426</t>
-  </si>
-  <si>
     <t>Decrease</t>
   </si>
   <si>
-    <t>DS01_582480</t>
-  </si>
-  <si>
-    <t>DS01_582565</t>
-  </si>
-  <si>
     <t>Import L/C</t>
   </si>
   <si>
-    <t>AT_RF_139</t>
-  </si>
-  <si>
-    <t>DS_AT_RF_139</t>
-  </si>
-  <si>
     <t>DS01_870478</t>
   </si>
   <si>
@@ -423,6 +382,33 @@
   </si>
   <si>
     <t>Down Payment</t>
+  </si>
+  <si>
+    <t>DS01_665893</t>
+  </si>
+  <si>
+    <t>Application Ref No in Facilities Management</t>
+  </si>
+  <si>
+    <t>DS01_592970</t>
+  </si>
+  <si>
+    <t>02/10/2022</t>
+  </si>
+  <si>
+    <t>Expected Payment Date</t>
+  </si>
+  <si>
+    <t>Maturity Date facility management</t>
+  </si>
+  <si>
+    <t>Facility Type In Facility Limits</t>
+  </si>
+  <si>
+    <t>DS01_1105454</t>
+  </si>
+  <si>
+    <t>DS01_592279</t>
   </si>
 </sst>
 </file>
@@ -627,7 +613,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -729,6 +715,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2067,475 +2062,481 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="15" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="19" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="45">
+    <row r="1" spans="1:34" ht="16.5" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="L1" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="N1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="O1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="P1" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="Q1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="R1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q1" s="41" t="s">
+      <c r="S1" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="U1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="V1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="41" t="s">
+      <c r="W1" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="Z1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="AA1" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="AB1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="AC1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AD1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AE1" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AF1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AG1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:34">
       <c r="A2" s="43">
-        <v>870478</v>
+        <v>1105454</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="D2" s="44">
+        <v>19</v>
+      </c>
       <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
-        <v>106</v>
-      </c>
+      <c r="F2" s="44"/>
       <c r="G2" s="45"/>
-      <c r="H2" s="46">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46">
         <v>727</v>
       </c>
-      <c r="I2" s="46">
-        <v>369</v>
-      </c>
-      <c r="J2" s="46">
-        <v>320</v>
-      </c>
-      <c r="K2" s="46">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="46"/>
       <c r="R2" s="44"/>
-      <c r="S2" s="46">
-        <v>1</v>
-      </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="46"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="44"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="44"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46">
         <v>727</v>
       </c>
-      <c r="I3" s="46">
+      <c r="L3" s="46">
         <v>369</v>
       </c>
-      <c r="J3" s="46">
+      <c r="M3" s="46">
         <v>320</v>
       </c>
-      <c r="K3" s="46">
+      <c r="N3" s="46">
         <v>2</v>
       </c>
-      <c r="L3" s="46">
+      <c r="O3" s="46">
         <v>10000</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44">
+      <c r="P3" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44">
         <v>1000</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="T3" s="44">
         <v>1000</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="46">
-        <v>1</v>
-      </c>
-      <c r="T3" s="46">
+      <c r="U3" s="44"/>
+      <c r="V3" s="46">
+        <v>1</v>
+      </c>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46">
         <v>1000</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="43">
-        <v>296063</v>
+        <v>665893</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
-        <v>106</v>
-      </c>
+      <c r="F4" s="44"/>
       <c r="G4" s="45"/>
-      <c r="H4" s="46">
-        <v>727</v>
-      </c>
-      <c r="I4" s="46">
-        <v>369</v>
-      </c>
-      <c r="J4" s="46">
-        <v>320</v>
-      </c>
-      <c r="K4" s="46">
-        <v>2</v>
-      </c>
-      <c r="L4" s="46">
-        <v>10000</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>129</v>
-      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45">
+        <v>3561</v>
+      </c>
+      <c r="J4" s="52">
+        <v>44200</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="46"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44">
-        <v>1000</v>
-      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46"/>
       <c r="R4" s="44"/>
-      <c r="S4" s="46">
-        <v>1</v>
-      </c>
-      <c r="T4" s="46">
-        <v>1000</v>
-      </c>
-      <c r="U4" s="46"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
       <c r="V4" s="46"/>
-      <c r="W4" s="48">
-        <v>1</v>
-      </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="44"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="44"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="43">
-        <v>834966</v>
+        <v>592970</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C5" s="46">
         <v>369</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46">
         <v>727</v>
       </c>
-      <c r="I5" s="46">
+      <c r="L5" s="46">
         <v>369</v>
       </c>
-      <c r="J5" s="46">
+      <c r="M5" s="46">
         <v>320</v>
       </c>
-      <c r="K5" s="46">
+      <c r="N5" s="46">
         <v>2</v>
       </c>
-      <c r="L5" s="46">
+      <c r="O5" s="46">
         <v>10000</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="P5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="46">
+        <v>1</v>
+      </c>
+      <c r="W5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="46">
-        <v>1</v>
-      </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="44"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="43">
-        <v>681303</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>111</v>
-      </c>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="44"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="46">
         <v>369</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46">
         <v>727</v>
       </c>
-      <c r="I6" s="46">
+      <c r="L6" s="46">
         <v>369</v>
       </c>
-      <c r="J6" s="46">
+      <c r="M6" s="46">
         <v>320</v>
       </c>
-      <c r="K6" s="46">
+      <c r="N6" s="46">
         <v>2</v>
       </c>
-      <c r="L6" s="46">
+      <c r="O6" s="46">
         <v>10000</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="P6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="46">
+        <v>1</v>
+      </c>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="46">
-        <v>1</v>
-      </c>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="48">
-        <v>1</v>
-      </c>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="44"/>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="43">
-        <v>640861</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>112</v>
-      </c>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="44"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46">
         <v>727</v>
       </c>
-      <c r="I7" s="46">
+      <c r="L7" s="46">
         <v>369</v>
       </c>
-      <c r="J7" s="46">
+      <c r="M7" s="46">
         <v>320</v>
       </c>
-      <c r="K7" s="46">
+      <c r="N7" s="46">
         <v>2</v>
       </c>
-      <c r="L7" s="46">
+      <c r="O7" s="46">
         <v>10000</v>
       </c>
-      <c r="M7" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46">
+      <c r="P7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46">
         <v>2</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46">
+      <c r="S7" s="46"/>
+      <c r="T7" s="46">
         <v>2</v>
       </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46">
-        <v>1</v>
-      </c>
-      <c r="T7" s="46"/>
       <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
       <c r="AD7" s="44"/>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>114</v>
-      </c>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -2546,9 +2547,869 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="49"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
+        <v>3679</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="50"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46">
+        <v>369</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46">
+        <v>727</v>
+      </c>
+      <c r="L10" s="46">
+        <v>369</v>
+      </c>
+      <c r="M10" s="46">
+        <v>320</v>
+      </c>
+      <c r="N10" s="46">
+        <v>2</v>
+      </c>
+      <c r="O10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="46">
+        <v>1</v>
+      </c>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="50"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="48">
+        <v>1349</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44">
+        <v>2</v>
+      </c>
+      <c r="O11" s="44">
+        <v>500</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46">
+        <v>369</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46">
+        <v>727</v>
+      </c>
+      <c r="L12" s="46">
+        <v>369</v>
+      </c>
+      <c r="M12" s="46">
+        <v>320</v>
+      </c>
+      <c r="N12" s="46">
+        <v>2</v>
+      </c>
+      <c r="O12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="46">
+        <v>1</v>
+      </c>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44">
+        <v>3455</v>
+      </c>
+      <c r="AC12" s="44">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46">
+        <v>727</v>
+      </c>
+      <c r="L13" s="46">
+        <v>369</v>
+      </c>
+      <c r="M13" s="46">
+        <v>320</v>
+      </c>
+      <c r="N13" s="46">
+        <v>2</v>
+      </c>
+      <c r="O13" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46">
+        <v>727</v>
+      </c>
+      <c r="L14" s="46">
+        <v>369</v>
+      </c>
+      <c r="M14" s="46">
+        <v>320</v>
+      </c>
+      <c r="N14" s="46">
+        <v>2</v>
+      </c>
+      <c r="O14" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="46">
+        <v>1</v>
+      </c>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="45">
+      <c r="A1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="43">
+        <v>870478</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46">
+        <v>727</v>
+      </c>
+      <c r="K2" s="46">
+        <v>369</v>
+      </c>
+      <c r="L2" s="46">
+        <v>320</v>
+      </c>
+      <c r="M2" s="46">
+        <v>2</v>
+      </c>
+      <c r="N2" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="46">
+        <v>1</v>
+      </c>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="43">
+        <v>1038991</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46">
+        <v>727</v>
+      </c>
+      <c r="K3" s="46">
+        <v>369</v>
+      </c>
+      <c r="L3" s="46">
+        <v>320</v>
+      </c>
+      <c r="M3" s="46">
+        <v>2</v>
+      </c>
+      <c r="N3" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44">
+        <v>1000</v>
+      </c>
+      <c r="S3" s="44">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="44"/>
+      <c r="U3" s="46">
+        <v>1</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="43">
+        <v>665893</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45">
+        <v>3561</v>
+      </c>
+      <c r="I4" s="52">
+        <v>44200</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="44"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="43">
+        <v>592970</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="46">
+        <v>369</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46">
+        <v>727</v>
+      </c>
+      <c r="K5" s="46">
+        <v>369</v>
+      </c>
+      <c r="L5" s="46">
+        <v>320</v>
+      </c>
+      <c r="M5" s="46">
+        <v>2</v>
+      </c>
+      <c r="N5" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="46">
+        <v>1</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="43">
+        <v>592279</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="46">
+        <v>369</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46">
+        <v>727</v>
+      </c>
+      <c r="K6" s="46">
+        <v>369</v>
+      </c>
+      <c r="L6" s="46">
+        <v>320</v>
+      </c>
+      <c r="M6" s="46">
+        <v>2</v>
+      </c>
+      <c r="N6" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="46">
+        <v>1</v>
+      </c>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="44"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46">
+        <v>727</v>
+      </c>
+      <c r="K7" s="46">
+        <v>369</v>
+      </c>
+      <c r="L7" s="46">
+        <v>320</v>
+      </c>
+      <c r="M7" s="46">
+        <v>2</v>
+      </c>
+      <c r="N7" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46">
+        <v>2</v>
+      </c>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46">
+        <v>2</v>
+      </c>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -2563,17 +3424,16 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>117</v>
-      </c>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="44">
         <v>3679</v>
       </c>
@@ -2586,9 +3446,9 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
-      <c r="M9" s="49"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
@@ -2604,101 +3464,99 @@
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="50">
-        <v>583895</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>118</v>
-      </c>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="50"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="46">
         <v>369</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="45"/>
-      <c r="H10" s="46">
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46">
         <v>727</v>
       </c>
-      <c r="I10" s="46">
+      <c r="K10" s="46">
         <v>369</v>
       </c>
-      <c r="J10" s="46">
+      <c r="L10" s="46">
         <v>320</v>
       </c>
-      <c r="K10" s="46">
+      <c r="M10" s="46">
         <v>2</v>
       </c>
-      <c r="L10" s="46">
+      <c r="N10" s="46">
         <v>10000</v>
       </c>
-      <c r="M10" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="O10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="46"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
-      <c r="S10" s="46">
-        <v>1</v>
-      </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="46">
+        <v>1</v>
+      </c>
       <c r="V10" s="46"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="50">
-        <v>582426</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="50"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="48" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G11" s="48">
         <v>1349</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="44">
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44">
         <v>2</v>
       </c>
-      <c r="L11" s="44">
+      <c r="N11" s="44">
         <v>500</v>
       </c>
-      <c r="M11" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="O11" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
@@ -2709,25 +3567,24 @@
       <c r="W11" s="44"/>
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
-      <c r="Z11" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="50">
-        <v>582480</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>123</v>
-      </c>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="46">
         <v>369</v>
       </c>
@@ -2737,61 +3594,60 @@
         <v>106</v>
       </c>
       <c r="G12" s="45"/>
-      <c r="H12" s="46">
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46">
         <v>727</v>
       </c>
-      <c r="I12" s="46">
+      <c r="K12" s="46">
         <v>369</v>
       </c>
-      <c r="J12" s="46">
+      <c r="L12" s="46">
         <v>320</v>
       </c>
-      <c r="K12" s="46">
+      <c r="M12" s="46">
         <v>2</v>
       </c>
-      <c r="L12" s="46">
+      <c r="N12" s="46">
         <v>10000</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="O12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="46"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
-      <c r="S12" s="46">
-        <v>1</v>
-      </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="46">
+        <v>1</v>
+      </c>
       <c r="V12" s="46"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44">
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44">
         <v>3455</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="AB12" s="44">
         <v>2</v>
       </c>
-      <c r="Z12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="50">
-        <v>582565</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>124</v>
-      </c>
+      <c r="AC12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -2799,59 +3655,58 @@
         <v>106</v>
       </c>
       <c r="G13" s="45"/>
-      <c r="H13" s="46">
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46">
         <v>727</v>
       </c>
-      <c r="I13" s="46">
+      <c r="K13" s="46">
         <v>369</v>
       </c>
-      <c r="J13" s="46">
+      <c r="L13" s="46">
         <v>320</v>
       </c>
-      <c r="K13" s="46">
+      <c r="M13" s="46">
         <v>2</v>
       </c>
-      <c r="L13" s="46">
+      <c r="N13" s="46">
         <v>10000</v>
       </c>
-      <c r="M13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
+      <c r="O13" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
-      <c r="R13" s="44" t="s">
-        <v>125</v>
-      </c>
+      <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44">
-        <v>2</v>
-      </c>
+      <c r="T13" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" s="44"/>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
+      <c r="X13" s="44">
+        <v>2</v>
+      </c>
       <c r="Y13" s="44"/>
-      <c r="Z13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>127</v>
-      </c>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -2859,49 +3714,52 @@
         <v>106</v>
       </c>
       <c r="G14" s="45"/>
-      <c r="H14" s="46">
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46">
         <v>727</v>
       </c>
-      <c r="I14" s="46">
+      <c r="K14" s="46">
         <v>369</v>
       </c>
-      <c r="J14" s="46">
+      <c r="L14" s="46">
         <v>320</v>
       </c>
-      <c r="K14" s="46">
+      <c r="M14" s="46">
         <v>2</v>
       </c>
-      <c r="L14" s="46">
+      <c r="N14" s="46">
         <v>10000</v>
       </c>
-      <c r="M14" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="O14" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
-      <c r="S14" s="46">
-        <v>1</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="46">
+        <v>1</v>
+      </c>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
-      <c r="Z14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
   <si>
     <t>Password</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>DS01_592279</t>
+  </si>
+  <si>
+    <t>AT_CA_010</t>
+  </si>
+  <si>
+    <t>Approve Code</t>
+  </si>
+  <si>
+    <t>AT_CA_011</t>
+  </si>
+  <si>
+    <t>CIF NO IN Approval Committee</t>
+  </si>
+  <si>
+    <t>Committee Recommendations</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2915,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2943,9 +2958,15 @@
     <col min="22" max="22" width="17.5703125" customWidth="1"/>
     <col min="23" max="23" width="17.42578125" customWidth="1"/>
     <col min="24" max="26" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
+    <col min="34" max="34" width="29.140625" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45">
+    <row r="1" spans="1:36" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -3037,16 +3058,25 @@
         <v>102</v>
       </c>
       <c r="AE1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AH1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:36">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
@@ -3101,11 +3131,14 @@
       <c r="AD2" s="48">
         <v>1</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="44"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="44"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
@@ -3165,8 +3198,11 @@
       <c r="AE3" s="44"/>
       <c r="AF3" s="44"/>
       <c r="AG3" s="44"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="43">
         <v>665893</v>
       </c>
@@ -3205,11 +3241,14 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
       <c r="AD4" s="48"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="44"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="44"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="43">
         <v>592970</v>
       </c>
@@ -3268,13 +3307,16 @@
       <c r="AD5" s="48">
         <v>1</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="44"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="43">
         <v>592279</v>
       </c>
@@ -3333,15 +3375,22 @@
       <c r="AD6" s="48">
         <v>1</v>
       </c>
-      <c r="AE6" s="45" t="s">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="44"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="44"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="43">
+        <v>280444</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>128</v>
+      </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
@@ -3367,16 +3416,12 @@
         <v>10000</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P7" s="46"/>
-      <c r="Q7" s="46">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
-      <c r="S7" s="46">
-        <v>2</v>
-      </c>
+      <c r="S7" s="46"/>
       <c r="T7" s="46"/>
       <c r="U7" s="46">
         <v>1</v>
@@ -3388,34 +3433,61 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
+      <c r="AC7" s="44">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="44">
+        <v>1</v>
+      </c>
       <c r="AE7" s="44"/>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="43">
+        <v>127769</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="49"/>
+      <c r="J8" s="46">
+        <v>727</v>
+      </c>
+      <c r="K8" s="46">
+        <v>369</v>
+      </c>
+      <c r="L8" s="46">
+        <v>320</v>
+      </c>
+      <c r="M8" s="46">
+        <v>2</v>
+      </c>
+      <c r="N8" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="U8" s="46">
+        <v>1</v>
+      </c>
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
       <c r="X8" s="44"/>
@@ -3423,15 +3495,24 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
+      <c r="AC8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="44">
+        <v>727</v>
+      </c>
       <c r="AF8" s="44"/>
-      <c r="AG8" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="46"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="44">
@@ -3467,8 +3548,11 @@
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
       <c r="AG9" s="44"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="50"/>
       <c r="B10" s="43"/>
       <c r="C10" s="46">
@@ -3525,13 +3609,16 @@
       <c r="AD10" s="48">
         <v>1</v>
       </c>
-      <c r="AE10" s="45" t="s">
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="50"/>
       <c r="B11" s="43"/>
       <c r="C11" s="44"/>
@@ -3576,13 +3663,16 @@
       <c r="AD11" s="48">
         <v>1</v>
       </c>
-      <c r="AE11" s="45" t="s">
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
       <c r="C12" s="46">
@@ -3639,13 +3729,16 @@
       <c r="AD12" s="48">
         <v>1</v>
       </c>
-      <c r="AE12" s="45" t="s">
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="50"/>
       <c r="B13" s="51"/>
       <c r="C13" s="44"/>
@@ -3698,13 +3791,16 @@
       <c r="AD13" s="48">
         <v>1</v>
       </c>
-      <c r="AE13" s="45" t="s">
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="44"/>
@@ -3755,13 +3851,17 @@
       <c r="AD14" s="48">
         <v>1</v>
       </c>
-      <c r="AE14" s="45" t="s">
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>Password</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>Committee Recommendations</t>
+  </si>
+  <si>
+    <t>AT_CA_009</t>
+  </si>
+  <si>
+    <t>AT_CA_013</t>
+  </si>
+  <si>
+    <t>AT_RP_008</t>
+  </si>
+  <si>
+    <t>AT_RP_010</t>
   </si>
 </sst>
 </file>
@@ -2932,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3513,29 +3525,49 @@
       <c r="AJ8" s="46"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="43">
+        <v>288531</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="C9" s="44">
         <v>3679</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="49"/>
+      <c r="J9" s="46">
+        <v>727</v>
+      </c>
+      <c r="K9" s="46">
+        <v>369</v>
+      </c>
+      <c r="L9" s="46">
+        <v>320</v>
+      </c>
+      <c r="M9" s="46">
+        <v>2</v>
+      </c>
+      <c r="N9" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="U9" s="46">
+        <v>1</v>
+      </c>
       <c r="V9" s="44"/>
       <c r="W9" s="44"/>
       <c r="X9" s="44"/>
@@ -3543,18 +3575,30 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
+      <c r="AC9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="44">
+        <v>727</v>
+      </c>
       <c r="AF9" s="44"/>
       <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
+      <c r="AH9" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="50"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="50">
+        <v>127908</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>134</v>
+      </c>
       <c r="C10" s="46">
         <v>369</v>
       </c>
@@ -3586,7 +3630,7 @@
         <v>10000</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P10" s="46"/>
       <c r="Q10" s="44"/>
@@ -3614,42 +3658,54 @@
       <c r="AG10" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" s="45"/>
+      <c r="AH10" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="50"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="50">
+        <v>855250</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>135</v>
+      </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="48">
-        <v>1349</v>
-      </c>
+      <c r="F11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="J11" s="46">
+        <v>727</v>
+      </c>
+      <c r="K11" s="46">
+        <v>369</v>
+      </c>
+      <c r="L11" s="46">
+        <v>320</v>
+      </c>
       <c r="M11" s="44">
         <v>2</v>
       </c>
-      <c r="N11" s="44">
-        <v>500</v>
+      <c r="N11" s="46">
+        <v>10000</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="U11" s="44">
+        <v>1</v>
+      </c>
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
       <c r="X11" s="44"/>
@@ -3657,24 +3713,22 @@
       <c r="Z11" s="44"/>
       <c r="AA11" s="44"/>
       <c r="AB11" s="44"/>
-      <c r="AC11" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="48">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
       <c r="AE11" s="48"/>
       <c r="AF11" s="48"/>
-      <c r="AG11" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AG11" s="45"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="44"/>
       <c r="AJ11" s="44"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="50">
+        <v>288803</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>136</v>
+      </c>
       <c r="C12" s="46">
         <v>369</v>
       </c>
@@ -3702,7 +3756,7 @@
         <v>10000</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P12" s="46"/>
       <c r="Q12" s="44"/>
@@ -3717,23 +3771,13 @@
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="44"/>
-      <c r="AA12" s="44">
-        <v>3455</v>
-      </c>
-      <c r="AB12" s="44">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="48">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
-      <c r="AG12" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AG12" s="45"/>
       <c r="AH12" s="45"/>
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
@@ -3785,12 +3829,8 @@
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
-      <c r="AC13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="48">
-        <v>1</v>
-      </c>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
       <c r="AE13" s="48"/>
       <c r="AF13" s="48"/>
       <c r="AG13" s="45" t="s">
@@ -3845,12 +3885,8 @@
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
-      <c r="AC14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="48">
-        <v>1</v>
-      </c>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
       <c r="AE14" s="48"/>
       <c r="AF14" s="48"/>
       <c r="AG14" s="45" t="s">

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
   <si>
     <t>Password</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>AT_RP_010</t>
+  </si>
+  <si>
+    <t>Floating Rate</t>
+  </si>
+  <si>
+    <t>Floating Rate Periodicity</t>
+  </si>
+  <si>
+    <t>AT_CA_014</t>
+  </si>
+  <si>
+    <t>Month(s)</t>
+  </si>
+  <si>
+    <t>Floating Rate Periodicity Type</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2942,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2966,19 +2981,19 @@
     <col min="17" max="17" width="17.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="26" width="9.140625" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="24.85546875" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" customWidth="1"/>
-    <col min="34" max="34" width="29.140625" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" customWidth="1"/>
+    <col min="21" max="22" width="13.85546875" customWidth="1"/>
+    <col min="23" max="24" width="29.85546875" customWidth="1"/>
+    <col min="25" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="34" max="34" width="24.85546875" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" customWidth="1"/>
+    <col min="37" max="37" width="29.140625" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45">
+    <row r="1" spans="1:39" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -3043,52 +3058,61 @@
         <v>95</v>
       </c>
       <c r="V1" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="AA1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AF1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AG1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AH1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AI1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AK1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AL1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
@@ -3134,23 +3158,26 @@
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
       <c r="Y2" s="46"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="48">
-        <v>1</v>
-      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
       <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="44"/>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AF2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="44"/>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
@@ -3197,12 +3224,12 @@
         <v>1</v>
       </c>
       <c r="V3" s="46"/>
-      <c r="W3" s="46">
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46">
         <v>1000</v>
       </c>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
@@ -3213,8 +3240,11 @@
       <c r="AH3" s="44"/>
       <c r="AI3" s="44"/>
       <c r="AJ3" s="44"/>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="43">
         <v>665893</v>
       </c>
@@ -3248,19 +3278,22 @@
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
       <c r="AC4" s="48"/>
       <c r="AD4" s="48"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="48"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="44"/>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="44"/>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="43">
         <v>592970</v>
       </c>
@@ -3304,31 +3337,34 @@
       <c r="U5" s="46">
         <v>1</v>
       </c>
-      <c r="V5" s="47" t="s">
-        <v>122</v>
-      </c>
+      <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="48">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
       <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="45" t="s">
+      <c r="AF5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="44"/>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="43">
         <v>592279</v>
       </c>
@@ -3376,27 +3412,30 @@
       <c r="W6" s="46"/>
       <c r="X6" s="46"/>
       <c r="Y6" s="46"/>
-      <c r="Z6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
       <c r="AC6" s="48">
         <v>1</v>
       </c>
-      <c r="AD6" s="48">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="45" t="s">
+      <c r="AF6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="44"/>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="44"/>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="43">
         <v>280444</v>
       </c>
@@ -3442,23 +3481,26 @@
       <c r="W7" s="46"/>
       <c r="X7" s="46"/>
       <c r="Y7" s="46"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="44">
-        <v>1</v>
-      </c>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
+      <c r="AF7" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="44">
+        <v>1</v>
+      </c>
       <c r="AH7" s="44"/>
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" s="43">
         <v>127769</v>
       </c>
@@ -3500,31 +3542,34 @@
       <c r="U8" s="46">
         <v>1</v>
       </c>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
-      <c r="AC8" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="44">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="44">
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="44">
         <v>727</v>
       </c>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="45" t="s">
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="46"/>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="46"/>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="43">
         <v>288531</v>
       </c>
@@ -3568,31 +3613,34 @@
       <c r="U9" s="46">
         <v>1</v>
       </c>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="44">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="44">
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="44">
         <v>727</v>
-      </c>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="50">
         <v>127908</v>
       </c>
@@ -3644,27 +3692,30 @@
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
       <c r="Y10" s="46"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="45" t="s">
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" s="45" t="s">
+      <c r="AK10" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="50">
         <v>855250</v>
       </c>
@@ -3713,16 +3764,19 @@
       <c r="Z11" s="44"/>
       <c r="AA11" s="44"/>
       <c r="AB11" s="44"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
       <c r="AF11" s="48"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="50">
         <v>288803</v>
       </c>
@@ -3770,21 +3824,28 @@
       <c r="W12" s="46"/>
       <c r="X12" s="46"/>
       <c r="Y12" s="46"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
       <c r="AF12" s="48"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="50">
+        <v>127909</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>139</v>
+      </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -3810,7 +3871,7 @@
         <v>10000</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
@@ -3820,27 +3881,38 @@
         <v>113</v>
       </c>
       <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44">
+      <c r="V13" s="44">
+        <v>98</v>
+      </c>
+      <c r="W13" s="44">
         <v>2</v>
+      </c>
+      <c r="X13" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="45" t="s">
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="44"/>
@@ -3880,21 +3952,24 @@
       </c>
       <c r="V14" s="46"/>
       <c r="W14" s="46"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
       <c r="AF14" s="48"/>
-      <c r="AG14" s="45" t="s">
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -1106,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3880,7 +3880,9 @@
       <c r="T13" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="U13" s="44"/>
+      <c r="U13" s="44">
+        <v>2</v>
+      </c>
       <c r="V13" s="44">
         <v>98</v>
       </c>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="148">
   <si>
     <t>Password</t>
   </si>
@@ -451,6 +451,24 @@
   </si>
   <si>
     <t>Floating Rate Periodicity Type</t>
+  </si>
+  <si>
+    <t>AT_FALC_002</t>
+  </si>
+  <si>
+    <t>AT_FALC_003</t>
+  </si>
+  <si>
+    <t>Reject Reason Final Approval Screen</t>
+  </si>
+  <si>
+    <t>Comments Reason Final Approval Screen</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>AT_FALC_004</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2957,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2983,17 +3001,23 @@
     <col min="19" max="19" width="14.28515625" customWidth="1"/>
     <col min="21" max="22" width="13.85546875" customWidth="1"/>
     <col min="23" max="24" width="29.85546875" customWidth="1"/>
-    <col min="25" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="15" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="19" customWidth="1"/>
     <col min="34" max="34" width="24.85546875" customWidth="1"/>
     <col min="35" max="35" width="13.85546875" customWidth="1"/>
     <col min="37" max="37" width="29.140625" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" customWidth="1"/>
+    <col min="38" max="38" width="26.140625" customWidth="1"/>
+    <col min="39" max="39" width="45.140625" customWidth="1"/>
+    <col min="40" max="40" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="45">
+    <row r="1" spans="1:41" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -3108,11 +3132,17 @@
       <c r="AL1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AM1" s="40" t="s">
+      <c r="AM1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
@@ -3175,9 +3205,11 @@
       <c r="AJ2" s="45"/>
       <c r="AK2" s="45"/>
       <c r="AL2" s="45"/>
-      <c r="AM2" s="44"/>
-    </row>
-    <row r="3" spans="1:39">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="44"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
@@ -3243,8 +3275,10 @@
       <c r="AK3" s="44"/>
       <c r="AL3" s="44"/>
       <c r="AM3" s="44"/>
-    </row>
-    <row r="4" spans="1:39">
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" s="43">
         <v>665893</v>
       </c>
@@ -3291,9 +3325,11 @@
       <c r="AJ4" s="45"/>
       <c r="AK4" s="45"/>
       <c r="AL4" s="45"/>
-      <c r="AM4" s="44"/>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="44"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="43">
         <v>592970</v>
       </c>
@@ -3362,9 +3398,11 @@
       </c>
       <c r="AK5" s="45"/>
       <c r="AL5" s="45"/>
-      <c r="AM5" s="44"/>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="44"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="43">
         <v>592279</v>
       </c>
@@ -3433,9 +3471,11 @@
       </c>
       <c r="AK6" s="45"/>
       <c r="AL6" s="45"/>
-      <c r="AM6" s="44"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="44"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="43">
         <v>280444</v>
       </c>
@@ -3499,8 +3539,10 @@
       <c r="AK7" s="44"/>
       <c r="AL7" s="44"/>
       <c r="AM7" s="44"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="43">
         <v>127769</v>
       </c>
@@ -3567,9 +3609,11 @@
         <v>108</v>
       </c>
       <c r="AL8" s="44"/>
-      <c r="AM8" s="46"/>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="46"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="43">
         <v>288531</v>
       </c>
@@ -3639,8 +3683,10 @@
       </c>
       <c r="AL9" s="44"/>
       <c r="AM9" s="44"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="50">
         <v>127908</v>
       </c>
@@ -3714,8 +3760,10 @@
       </c>
       <c r="AL10" s="44"/>
       <c r="AM10" s="44"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="50">
         <v>855250</v>
       </c>
@@ -3775,8 +3823,10 @@
       <c r="AK11" s="45"/>
       <c r="AL11" s="44"/>
       <c r="AM11" s="44"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="50">
         <v>288803</v>
       </c>
@@ -3838,8 +3888,10 @@
       <c r="AK12" s="45"/>
       <c r="AL12" s="44"/>
       <c r="AM12" s="44"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="50">
         <v>127909</v>
       </c>
@@ -3905,7 +3957,9 @@
       <c r="AG13" s="48">
         <v>1</v>
       </c>
-      <c r="AH13" s="48"/>
+      <c r="AH13" s="48">
+        <v>727</v>
+      </c>
       <c r="AI13" s="48"/>
       <c r="AJ13" s="45" t="s">
         <v>108</v>
@@ -3913,10 +3967,16 @@
       <c r="AK13" s="45"/>
       <c r="AL13" s="44"/>
       <c r="AM13" s="44"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="51">
+        <v>899828</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>142</v>
+      </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -3942,7 +4002,7 @@
         <v>10000</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -3962,16 +4022,545 @@
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
+      <c r="AF14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="48">
+        <v>1</v>
+      </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
-      <c r="AJ14" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ14" s="45"/>
       <c r="AK14" s="45"/>
       <c r="AL14" s="44"/>
       <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="51">
+        <v>828096</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46">
+        <v>727</v>
+      </c>
+      <c r="K15" s="46">
+        <v>369</v>
+      </c>
+      <c r="L15" s="46">
+        <v>320</v>
+      </c>
+      <c r="M15" s="46">
+        <v>2</v>
+      </c>
+      <c r="N15" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="46">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO15" s="44"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="51">
+        <v>127764</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46">
+        <v>727</v>
+      </c>
+      <c r="K16" s="46">
+        <v>369</v>
+      </c>
+      <c r="L16" s="46">
+        <v>320</v>
+      </c>
+      <c r="M16" s="46">
+        <v>2</v>
+      </c>
+      <c r="N16" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="46">
+        <v>1</v>
+      </c>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
   <si>
     <t>Password</t>
   </si>
@@ -469,6 +469,15 @@
   </si>
   <si>
     <t>AT_FALC_004</t>
+  </si>
+  <si>
+    <t>AT_FALC_007</t>
+  </si>
+  <si>
+    <t>AT_FALC_005</t>
+  </si>
+  <si>
+    <t>AT_FALC_006</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2977,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3162,7 +3171,7 @@
         <v>727</v>
       </c>
       <c r="K2" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L2" s="46">
         <v>320</v>
@@ -3229,7 +3238,7 @@
         <v>727</v>
       </c>
       <c r="K3" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L3" s="46">
         <v>320</v>
@@ -3351,7 +3360,7 @@
         <v>727</v>
       </c>
       <c r="K5" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L5" s="46">
         <v>320</v>
@@ -3424,7 +3433,7 @@
         <v>727</v>
       </c>
       <c r="K6" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L6" s="46">
         <v>320</v>
@@ -3495,7 +3504,7 @@
         <v>727</v>
       </c>
       <c r="K7" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L7" s="46">
         <v>320</v>
@@ -3562,7 +3571,7 @@
         <v>727</v>
       </c>
       <c r="K8" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L8" s="46">
         <v>320</v>
@@ -3635,7 +3644,7 @@
         <v>727</v>
       </c>
       <c r="K9" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L9" s="46">
         <v>320</v>
@@ -3712,7 +3721,7 @@
         <v>727</v>
       </c>
       <c r="K10" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L10" s="46">
         <v>320</v>
@@ -3783,7 +3792,7 @@
         <v>727</v>
       </c>
       <c r="K11" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L11" s="46">
         <v>320</v>
@@ -3848,7 +3857,7 @@
         <v>727</v>
       </c>
       <c r="K12" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L12" s="46">
         <v>320</v>
@@ -3911,7 +3920,7 @@
         <v>727</v>
       </c>
       <c r="K13" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L13" s="46">
         <v>320</v>
@@ -3990,7 +3999,7 @@
         <v>727</v>
       </c>
       <c r="K14" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L14" s="46">
         <v>320</v>
@@ -4057,7 +4066,7 @@
         <v>727</v>
       </c>
       <c r="K15" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L15" s="46">
         <v>320</v>
@@ -4128,7 +4137,7 @@
         <v>727</v>
       </c>
       <c r="K16" s="46">
-        <v>369</v>
+        <v>1529</v>
       </c>
       <c r="L16" s="46">
         <v>320</v>
@@ -4176,27 +4185,47 @@
       <c r="AO16" s="44"/>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="51">
+        <v>127849</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>148</v>
+      </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
+      <c r="J17" s="46">
+        <v>727</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L17" s="46">
+        <v>320</v>
+      </c>
+      <c r="M17" s="46">
+        <v>2</v>
+      </c>
+      <c r="N17" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O17" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="46"/>
+      <c r="U17" s="46">
+        <v>1</v>
+      </c>
       <c r="V17" s="46"/>
       <c r="W17" s="46"/>
       <c r="X17" s="46"/>
@@ -4207,39 +4236,67 @@
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="44"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
+      <c r="AF17" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="48">
+        <v>1</v>
+      </c>
       <c r="AH17" s="48"/>
       <c r="AI17" s="48"/>
       <c r="AJ17" s="45"/>
       <c r="AK17" s="45"/>
       <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
+      <c r="AM17" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="48" t="s">
+        <v>146</v>
+      </c>
       <c r="AO17" s="44"/>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="51">
+        <v>127772</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>149</v>
+      </c>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="J18" s="46">
+        <v>727</v>
+      </c>
+      <c r="K18" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L18" s="46">
+        <v>320</v>
+      </c>
+      <c r="M18" s="46">
+        <v>2</v>
+      </c>
+      <c r="N18" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
-      <c r="U18" s="46"/>
+      <c r="U18" s="46">
+        <v>1</v>
+      </c>
       <c r="V18" s="46"/>
       <c r="W18" s="46"/>
       <c r="X18" s="46"/>
@@ -4250,8 +4307,12 @@
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="44"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
+      <c r="AF18" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="48">
+        <v>1</v>
+      </c>
       <c r="AH18" s="48"/>
       <c r="AI18" s="48"/>
       <c r="AJ18" s="45"/>
@@ -4262,27 +4323,47 @@
       <c r="AO18" s="44"/>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="51">
+        <v>127842</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>150</v>
+      </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
+      <c r="J19" s="46">
+        <v>727</v>
+      </c>
+      <c r="K19" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L19" s="46">
+        <v>320</v>
+      </c>
+      <c r="M19" s="46">
+        <v>2</v>
+      </c>
+      <c r="N19" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P19" s="44"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
-      <c r="U19" s="46"/>
+      <c r="U19" s="46">
+        <v>1</v>
+      </c>
       <c r="V19" s="46"/>
       <c r="W19" s="46"/>
       <c r="X19" s="46"/>
@@ -4293,8 +4374,12 @@
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
+      <c r="AF19" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="48">
+        <v>1</v>
+      </c>
       <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
       <c r="AJ19" s="45"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="152">
   <si>
     <t>Password</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>AT_FALC_006</t>
+  </si>
+  <si>
+    <t>JG</t>
   </si>
 </sst>
 </file>
@@ -2986,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K19"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3973,7 +3976,9 @@
       <c r="AJ13" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AK13" s="45"/>
+      <c r="AK13" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL13" s="44"/>
       <c r="AM13" s="44"/>
       <c r="AN13" s="44"/>
@@ -4175,10 +4180,16 @@
       <c r="AG16" s="48">
         <v>1</v>
       </c>
-      <c r="AH16" s="48"/>
+      <c r="AH16" s="48">
+        <v>727</v>
+      </c>
       <c r="AI16" s="48"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
+      <c r="AJ16" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK16" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
@@ -4251,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="AN17" s="48" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AO17" s="44"/>
     </row>
@@ -4380,10 +4391,16 @@
       <c r="AG19" s="48">
         <v>1</v>
       </c>
-      <c r="AH19" s="48"/>
+      <c r="AH19" s="48">
+        <v>727</v>
+      </c>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
+      <c r="AJ19" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK19" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
@@ -4425,8 +4442,12 @@
       <c r="AG20" s="48"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
+      <c r="AJ20" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK20" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
   <si>
     <t>Password</t>
   </si>
@@ -408,9 +408,6 @@
     <t>DS01_1105454</t>
   </si>
   <si>
-    <t>DS01_592279</t>
-  </si>
-  <si>
     <t>AT_CA_010</t>
   </si>
   <si>
@@ -481,6 +478,42 @@
   </si>
   <si>
     <t>JG</t>
+  </si>
+  <si>
+    <t>AT_RF_010</t>
+  </si>
+  <si>
+    <t>Category FixedAssert</t>
+  </si>
+  <si>
+    <t>Class FixedAssert</t>
+  </si>
+  <si>
+    <t>Vendor  FixedAssert</t>
+  </si>
+  <si>
+    <t>Quantity FixedAssert</t>
+  </si>
+  <si>
+    <t>Unit  FixedAssert</t>
+  </si>
+  <si>
+    <t>CY  FixedAssert</t>
+  </si>
+  <si>
+    <t>UnitCost  FixedAssert</t>
+  </si>
+  <si>
+    <t>VatCode  FixedAssert</t>
+  </si>
+  <si>
+    <t>AT_RF_011</t>
+  </si>
+  <si>
+    <t>AT_RF_075</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2987,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3025,11 +3058,18 @@
     <col min="35" max="35" width="13.85546875" customWidth="1"/>
     <col min="37" max="37" width="29.140625" customWidth="1"/>
     <col min="38" max="38" width="26.140625" customWidth="1"/>
-    <col min="39" max="39" width="45.140625" customWidth="1"/>
-    <col min="40" max="40" width="44" customWidth="1"/>
+    <col min="39" max="39" width="44" customWidth="1"/>
+    <col min="40" max="40" width="45.140625" customWidth="1"/>
+    <col min="41" max="41" width="22.140625" customWidth="1"/>
+    <col min="42" max="42" width="20" customWidth="1"/>
+    <col min="43" max="43" width="21" customWidth="1"/>
+    <col min="44" max="44" width="21.28515625" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" customWidth="1"/>
+    <col min="46" max="46" width="18.85546875" customWidth="1"/>
+    <col min="47" max="48" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45">
+    <row r="1" spans="1:49" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -3094,13 +3134,13 @@
         <v>95</v>
       </c>
       <c r="V1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="W1" s="41" t="s">
-        <v>138</v>
-      </c>
       <c r="X1" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>123</v>
@@ -3130,16 +3170,16 @@
         <v>102</v>
       </c>
       <c r="AH1" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI1" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ1" s="41" t="s">
         <v>103</v>
       </c>
       <c r="AK1" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL1" s="41" t="s">
         <v>104</v>
@@ -3148,13 +3188,37 @@
         <v>144</v>
       </c>
       <c r="AN1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO1" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP1" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ1" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR1" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT1" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU1" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:49">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
@@ -3219,9 +3283,17 @@
       <c r="AL2" s="45"/>
       <c r="AM2" s="45"/>
       <c r="AN2" s="45"/>
-      <c r="AO2" s="44"/>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="44"/>
+    </row>
+    <row r="3" spans="1:49">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
@@ -3289,8 +3361,16 @@
       <c r="AM3" s="44"/>
       <c r="AN3" s="44"/>
       <c r="AO3" s="44"/>
-    </row>
-    <row r="4" spans="1:41">
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+    </row>
+    <row r="4" spans="1:49">
       <c r="A4" s="43">
         <v>665893</v>
       </c>
@@ -3339,9 +3419,17 @@
       <c r="AL4" s="45"/>
       <c r="AM4" s="45"/>
       <c r="AN4" s="45"/>
-      <c r="AO4" s="44"/>
-    </row>
-    <row r="5" spans="1:41">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="44"/>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="43">
         <v>592970</v>
       </c>
@@ -3375,7 +3463,7 @@
         <v>10000</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="P5" s="46"/>
       <c r="Q5" s="44"/>
@@ -3389,7 +3477,7 @@
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
       <c r="Y5" s="47" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="Z5" s="46"/>
       <c r="AA5" s="46"/>
@@ -3412,14 +3500,22 @@
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
       <c r="AN5" s="45"/>
-      <c r="AO5" s="44"/>
-    </row>
-    <row r="6" spans="1:41">
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="44"/>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="43">
         <v>592279</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C6" s="46">
         <v>369</v>
@@ -3485,14 +3581,22 @@
       <c r="AL6" s="45"/>
       <c r="AM6" s="45"/>
       <c r="AN6" s="45"/>
-      <c r="AO6" s="44"/>
-    </row>
-    <row r="7" spans="1:41">
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="44"/>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" s="43">
         <v>280444</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -3553,13 +3657,21 @@
       <c r="AM7" s="44"/>
       <c r="AN7" s="44"/>
       <c r="AO7" s="44"/>
-    </row>
-    <row r="8" spans="1:41">
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+    </row>
+    <row r="8" spans="1:49">
       <c r="A8" s="43">
         <v>127769</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -3623,14 +3735,22 @@
       <c r="AL8" s="44"/>
       <c r="AM8" s="44"/>
       <c r="AN8" s="44"/>
-      <c r="AO8" s="46"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="46"/>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" s="43">
         <v>288531</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="44">
         <v>3679</v>
@@ -3697,13 +3817,21 @@
       <c r="AM9" s="44"/>
       <c r="AN9" s="44"/>
       <c r="AO9" s="44"/>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="44"/>
+    </row>
+    <row r="10" spans="1:49">
       <c r="A10" s="50">
         <v>127908</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="46">
         <v>369</v>
@@ -3774,13 +3902,21 @@
       <c r="AM10" s="44"/>
       <c r="AN10" s="44"/>
       <c r="AO10" s="44"/>
-    </row>
-    <row r="11" spans="1:41">
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="50">
         <v>855250</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -3837,13 +3973,21 @@
       <c r="AM11" s="44"/>
       <c r="AN11" s="44"/>
       <c r="AO11" s="44"/>
-    </row>
-    <row r="12" spans="1:41">
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="50">
         <v>288803</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="46">
         <v>369</v>
@@ -3902,13 +4046,21 @@
       <c r="AM12" s="44"/>
       <c r="AN12" s="44"/>
       <c r="AO12" s="44"/>
-    </row>
-    <row r="13" spans="1:41">
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+    </row>
+    <row r="13" spans="1:49">
       <c r="A13" s="50">
         <v>127909</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -3954,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="X13" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
@@ -3983,13 +4135,21 @@
       <c r="AM13" s="44"/>
       <c r="AN13" s="44"/>
       <c r="AO13" s="44"/>
-    </row>
-    <row r="14" spans="1:41">
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+    </row>
+    <row r="14" spans="1:49">
       <c r="A14" s="51">
         <v>899828</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -4050,13 +4210,21 @@
       <c r="AM14" s="44"/>
       <c r="AN14" s="44"/>
       <c r="AO14" s="44"/>
-    </row>
-    <row r="15" spans="1:41">
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+    </row>
+    <row r="15" spans="1:49">
       <c r="A15" s="51">
         <v>828096</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4114,20 +4282,28 @@
       <c r="AJ15" s="45"/>
       <c r="AK15" s="45"/>
       <c r="AL15" s="44"/>
-      <c r="AM15" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="48" t="s">
-        <v>146</v>
+      <c r="AM15" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN15" s="44">
+        <v>1</v>
       </c>
       <c r="AO15" s="44"/>
-    </row>
-    <row r="16" spans="1:41">
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="51">
         <v>127764</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -4194,13 +4370,21 @@
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
       <c r="AO16" s="44"/>
-    </row>
-    <row r="17" spans="1:41">
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+    </row>
+    <row r="17" spans="1:49">
       <c r="A17" s="51">
         <v>127849</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -4258,20 +4442,28 @@
       <c r="AJ17" s="45"/>
       <c r="AK17" s="45"/>
       <c r="AL17" s="44"/>
-      <c r="AM17" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="48" t="s">
-        <v>151</v>
+      <c r="AM17" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN17" s="44">
+        <v>1</v>
       </c>
       <c r="AO17" s="44"/>
-    </row>
-    <row r="18" spans="1:41">
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+    </row>
+    <row r="18" spans="1:49">
       <c r="A18" s="51">
         <v>127772</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -4332,13 +4524,21 @@
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
       <c r="AO18" s="44"/>
-    </row>
-    <row r="19" spans="1:41">
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+      <c r="AR18" s="44"/>
+      <c r="AS18" s="44"/>
+      <c r="AT18" s="44"/>
+      <c r="AU18" s="44"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="44"/>
+    </row>
+    <row r="19" spans="1:49">
       <c r="A19" s="51">
         <v>127842</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -4405,29 +4605,57 @@
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
       <c r="AO19" s="44"/>
-    </row>
-    <row r="20" spans="1:41">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+    </row>
+    <row r="20" spans="1:49">
+      <c r="A20" s="51">
+        <v>1108920</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="46">
+        <v>727</v>
+      </c>
+      <c r="K20" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L20" s="46">
+        <v>320</v>
+      </c>
+      <c r="M20" s="46">
+        <v>2</v>
+      </c>
+      <c r="N20" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="46"/>
+      <c r="U20" s="46">
+        <v>1</v>
+      </c>
       <c r="V20" s="46"/>
       <c r="W20" s="46"/>
       <c r="X20" s="46"/>
@@ -4451,30 +4679,74 @@
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
+      <c r="AO20" s="44">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="44">
+        <v>1234</v>
+      </c>
+      <c r="AQ20" s="44">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="44">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="44">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="44">
+        <v>999</v>
+      </c>
+      <c r="AU20" s="44">
+        <v>11</v>
+      </c>
+      <c r="AV20" s="44">
+        <v>456</v>
+      </c>
+      <c r="AW20" s="44"/>
+    </row>
+    <row r="21" spans="1:49">
+      <c r="A21" s="51">
+        <v>1159358</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
+      <c r="J21" s="46">
+        <v>727</v>
+      </c>
+      <c r="K21" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L21" s="46">
+        <v>320</v>
+      </c>
+      <c r="M21" s="46">
+        <v>2</v>
+      </c>
+      <c r="N21" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O21" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
-      <c r="U21" s="46"/>
+      <c r="U21" s="46">
+        <v>1</v>
+      </c>
       <c r="V21" s="46"/>
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
@@ -4485,8 +4757,12 @@
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
       <c r="AE21" s="44"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
+      <c r="AF21" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="48">
+        <v>1</v>
+      </c>
       <c r="AH21" s="48"/>
       <c r="AI21" s="48"/>
       <c r="AJ21" s="45"/>
@@ -4495,8 +4771,16 @@
       <c r="AM21" s="44"/>
       <c r="AN21" s="44"/>
       <c r="AO21" s="44"/>
-    </row>
-    <row r="22" spans="1:41">
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+    </row>
+    <row r="22" spans="1:49">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="44"/>
@@ -4538,8 +4822,16 @@
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
       <c r="AO22" s="44"/>
-    </row>
-    <row r="23" spans="1:41">
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+    </row>
+    <row r="23" spans="1:49">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="44"/>
@@ -4581,8 +4873,16 @@
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="44"/>
-    </row>
-    <row r="24" spans="1:41">
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+    </row>
+    <row r="24" spans="1:49">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="44"/>
@@ -4624,8 +4924,16 @@
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
       <c r="AO24" s="44"/>
-    </row>
-    <row r="25" spans="1:41">
+      <c r="AP24" s="44"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="44"/>
+      <c r="AS24" s="44"/>
+      <c r="AT24" s="44"/>
+      <c r="AU24" s="44"/>
+      <c r="AV24" s="44"/>
+      <c r="AW24" s="44"/>
+    </row>
+    <row r="25" spans="1:49">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="44"/>
@@ -4667,6 +4975,14 @@
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
       <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
     <sheet name="AllFeaturesTestDataInstructions" sheetId="5" r:id="rId2"/>
-    <sheet name="FMS_Login" sheetId="1" r:id="rId3"/>
-    <sheet name="FMSParam_login" sheetId="2" r:id="rId4"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
-    <sheet name="TestExecution" sheetId="7" r:id="rId6"/>
-    <sheet name="DrawDownPayment_TestData" sheetId="10" r:id="rId7"/>
-    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId8"/>
+    <sheet name="IIS_Params_Login" sheetId="12" r:id="rId3"/>
+    <sheet name="IIS_Login" sheetId="11" r:id="rId4"/>
+    <sheet name="FMS_Login" sheetId="1" r:id="rId5"/>
+    <sheet name="FMSParam_login" sheetId="2" r:id="rId6"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
+    <sheet name="TestExecution" sheetId="7" r:id="rId8"/>
+    <sheet name="DrawDownPayment_TestData" sheetId="10" r:id="rId9"/>
+    <sheet name="FMS_WIFAK_ApplicationTestData" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="167">
   <si>
     <t>Password</t>
   </si>
@@ -514,6 +516,18 @@
   </si>
   <si>
     <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>AT_RF_117</t>
+  </si>
+  <si>
+    <t>AT_RF_154</t>
+  </si>
+  <si>
+    <t>Offer Expiry Date UpdateAfter Approve AFFF</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1379,1651 +1393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="35"/>
-      <c r="B3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="6"/>
-      <c r="B4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="6.9480314960629919" bottom="6.9480314960629919" header="6.7511811023622039" footer="6.7511811023622039"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>321</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1">
-        <v>321</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>321</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1">
-        <v>321</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>321</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>321</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1">
-        <v>321</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1">
-        <v>321</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>321</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1">
-        <v>321</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1">
-        <v>321</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>321</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1">
-        <v>321</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>321</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1">
-        <v>321</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>321</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1">
-        <v>321</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1">
-        <v>321</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1">
-        <v>321</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <v>321</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1">
-        <v>321</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1">
-        <v>321</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="39">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="39">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="24" width="13.85546875" customWidth="1"/>
-    <col min="25" max="27" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB1" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE1" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF1" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH1" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="43">
-        <v>1105454</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44">
-        <v>19</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46">
-        <v>727</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46">
-        <v>2</v>
-      </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="44"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="43">
-        <v>1038991</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46">
-        <v>727</v>
-      </c>
-      <c r="L3" s="46">
-        <v>369</v>
-      </c>
-      <c r="M3" s="46">
-        <v>320</v>
-      </c>
-      <c r="N3" s="46">
-        <v>2</v>
-      </c>
-      <c r="O3" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44">
-        <v>1000</v>
-      </c>
-      <c r="T3" s="44">
-        <v>1000</v>
-      </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="46">
-        <v>1</v>
-      </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46">
-        <v>1000</v>
-      </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="43">
-        <v>665893</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45">
-        <v>3561</v>
-      </c>
-      <c r="J4" s="52">
-        <v>44200</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="44"/>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="43">
-        <v>592970</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="46">
-        <v>369</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46">
-        <v>727</v>
-      </c>
-      <c r="L5" s="46">
-        <v>369</v>
-      </c>
-      <c r="M5" s="46">
-        <v>320</v>
-      </c>
-      <c r="N5" s="46">
-        <v>2</v>
-      </c>
-      <c r="O5" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="46">
-        <v>1</v>
-      </c>
-      <c r="W5" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="44"/>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="46">
-        <v>369</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46">
-        <v>727</v>
-      </c>
-      <c r="L6" s="46">
-        <v>369</v>
-      </c>
-      <c r="M6" s="46">
-        <v>320</v>
-      </c>
-      <c r="N6" s="46">
-        <v>2</v>
-      </c>
-      <c r="O6" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="46">
-        <v>1</v>
-      </c>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="44"/>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46">
-        <v>727</v>
-      </c>
-      <c r="L7" s="46">
-        <v>369</v>
-      </c>
-      <c r="M7" s="46">
-        <v>320</v>
-      </c>
-      <c r="N7" s="46">
-        <v>2</v>
-      </c>
-      <c r="O7" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46">
-        <v>2</v>
-      </c>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46">
-        <v>2</v>
-      </c>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46">
-        <v>1</v>
-      </c>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44">
-        <v>3679</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="50"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46">
-        <v>369</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46">
-        <v>727</v>
-      </c>
-      <c r="L10" s="46">
-        <v>369</v>
-      </c>
-      <c r="M10" s="46">
-        <v>320</v>
-      </c>
-      <c r="N10" s="46">
-        <v>2</v>
-      </c>
-      <c r="O10" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="46">
-        <v>1</v>
-      </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="50"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="48">
-        <v>1349</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44">
-        <v>2</v>
-      </c>
-      <c r="O11" s="44">
-        <v>500</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="46">
-        <v>369</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46">
-        <v>727</v>
-      </c>
-      <c r="L12" s="46">
-        <v>369</v>
-      </c>
-      <c r="M12" s="46">
-        <v>320</v>
-      </c>
-      <c r="N12" s="46">
-        <v>2</v>
-      </c>
-      <c r="O12" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="46">
-        <v>1</v>
-      </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44">
-        <v>3455</v>
-      </c>
-      <c r="AC12" s="44">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46">
-        <v>727</v>
-      </c>
-      <c r="L13" s="46">
-        <v>369</v>
-      </c>
-      <c r="M13" s="46">
-        <v>320</v>
-      </c>
-      <c r="N13" s="46">
-        <v>2</v>
-      </c>
-      <c r="O13" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P13" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46">
-        <v>727</v>
-      </c>
-      <c r="L14" s="46">
-        <v>369</v>
-      </c>
-      <c r="M14" s="46">
-        <v>320</v>
-      </c>
-      <c r="N14" s="46">
-        <v>2</v>
-      </c>
-      <c r="O14" s="46">
-        <v>10000</v>
-      </c>
-      <c r="P14" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="46">
-        <v>1</v>
-      </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="AO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3034,7 +1409,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
@@ -3067,9 +1442,10 @@
     <col min="45" max="45" width="17.140625" customWidth="1"/>
     <col min="46" max="46" width="18.85546875" customWidth="1"/>
     <col min="47" max="48" width="22" customWidth="1"/>
+    <col min="49" max="49" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="45">
+    <row r="1" spans="1:50" ht="45">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -3214,11 +1590,14 @@
       <c r="AV1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="AW1" s="40" t="s">
+      <c r="AW1" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:50">
       <c r="A2" s="43">
         <v>870478</v>
       </c>
@@ -3291,9 +1670,10 @@
       <c r="AT2" s="45"/>
       <c r="AU2" s="45"/>
       <c r="AV2" s="45"/>
-      <c r="AW2" s="44"/>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="44"/>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="43">
         <v>1038991</v>
       </c>
@@ -3369,8 +1749,9 @@
       <c r="AU3" s="44"/>
       <c r="AV3" s="44"/>
       <c r="AW3" s="44"/>
-    </row>
-    <row r="4" spans="1:49">
+      <c r="AX3" s="44"/>
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" s="43">
         <v>665893</v>
       </c>
@@ -3380,7 +1761,9 @@
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="F4" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45">
         <v>3561</v>
@@ -3427,26 +1810,25 @@
       <c r="AT4" s="45"/>
       <c r="AU4" s="45"/>
       <c r="AV4" s="45"/>
-      <c r="AW4" s="44"/>
-    </row>
-    <row r="5" spans="1:49">
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="44"/>
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="43">
-        <v>592970</v>
+        <v>574947</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="46">
-        <v>369</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+        <v>163</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="45" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="46">
         <v>727</v>
       </c>
@@ -3463,7 +1845,7 @@
         <v>10000</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="P5" s="46"/>
       <c r="Q5" s="44"/>
@@ -3476,9 +1858,7 @@
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46"/>
-      <c r="Y5" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
       <c r="AA5" s="46"/>
       <c r="AB5" s="46"/>
@@ -3493,9 +1873,7 @@
       </c>
       <c r="AH5" s="48"/>
       <c r="AI5" s="48"/>
-      <c r="AJ5" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ5" s="45"/>
       <c r="AK5" s="45"/>
       <c r="AL5" s="45"/>
       <c r="AM5" s="45"/>
@@ -3508,26 +1886,25 @@
       <c r="AT5" s="45"/>
       <c r="AU5" s="45"/>
       <c r="AV5" s="45"/>
-      <c r="AW5" s="44"/>
-    </row>
-    <row r="6" spans="1:49">
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="44"/>
+    </row>
+    <row r="6" spans="1:50">
       <c r="A6" s="43">
-        <v>592279</v>
+        <v>740809</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="46">
-        <v>369</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+        <v>164</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="45" t="s">
         <v>106</v>
       </c>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="46">
         <v>727</v>
       </c>
@@ -3544,7 +1921,7 @@
         <v>10000</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P6" s="46"/>
       <c r="Q6" s="44"/>
@@ -3561,9 +1938,7 @@
       <c r="Z6" s="46"/>
       <c r="AA6" s="46"/>
       <c r="AB6" s="46"/>
-      <c r="AC6" s="48">
-        <v>1</v>
-      </c>
+      <c r="AC6" s="48"/>
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
       <c r="AF6" s="48">
@@ -3574,9 +1949,7 @@
       </c>
       <c r="AH6" s="48"/>
       <c r="AI6" s="48"/>
-      <c r="AJ6" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ6" s="45"/>
       <c r="AK6" s="45"/>
       <c r="AL6" s="45"/>
       <c r="AM6" s="45"/>
@@ -3589,18 +1962,23 @@
       <c r="AT6" s="45"/>
       <c r="AU6" s="45"/>
       <c r="AV6" s="45"/>
-      <c r="AW6" s="44"/>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="AW6" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX6" s="44"/>
+    </row>
+    <row r="7" spans="1:50">
       <c r="A7" s="43">
-        <v>280444</v>
+        <v>592970</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+        <v>121</v>
+      </c>
+      <c r="C7" s="46">
+        <v>369</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="45" t="s">
         <v>106</v>
       </c>
@@ -3623,65 +2001,72 @@
         <v>10000</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="46">
         <v>1</v>
       </c>
       <c r="V7" s="46"/>
       <c r="W7" s="46"/>
       <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
+      <c r="Y7" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="Z7" s="46"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-    </row>
-    <row r="8" spans="1:49">
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="44"/>
+    </row>
+    <row r="8" spans="1:50">
       <c r="A8" s="43">
-        <v>127769</v>
+        <v>592279</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+        <v>161</v>
+      </c>
+      <c r="C8" s="46">
+        <v>369</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="46">
         <v>727</v>
       </c>
@@ -3698,9 +2083,9 @@
         <v>10000</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" s="44"/>
+        <v>107</v>
+      </c>
+      <c r="P8" s="46"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
@@ -3711,58 +2096,57 @@
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="44">
-        <v>727</v>
-      </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45" t="s">
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="48">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="46"/>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="44"/>
+    </row>
+    <row r="9" spans="1:50">
       <c r="A9" s="43">
-        <v>288531</v>
+        <v>280444</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="44">
-        <v>3679</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="46">
         <v>727</v>
       </c>
@@ -3781,21 +2165,21 @@
       <c r="O9" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
       <c r="U9" s="46">
         <v>1</v>
       </c>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
@@ -3805,14 +2189,10 @@
       <c r="AG9" s="44">
         <v>1</v>
       </c>
-      <c r="AH9" s="44">
-        <v>727</v>
-      </c>
+      <c r="AH9" s="44"/>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
-      <c r="AK9" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AK9" s="44"/>
       <c r="AL9" s="44"/>
       <c r="AM9" s="44"/>
       <c r="AN9" s="44"/>
@@ -3825,29 +2205,24 @@
       <c r="AU9" s="44"/>
       <c r="AV9" s="44"/>
       <c r="AW9" s="44"/>
-    </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="50">
-        <v>127908</v>
+      <c r="AX9" s="44"/>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" s="43">
+        <v>127769</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="46">
-        <v>369</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>111</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="46">
         <v>727</v>
       </c>
@@ -3866,7 +2241,7 @@
       <c r="O10" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
@@ -3877,24 +2252,24 @@
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
       <c r="AE10" s="44"/>
-      <c r="AF10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AF10" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="44">
+        <v>727</v>
+      </c>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
       <c r="AK10" s="45" t="s">
         <v>108</v>
       </c>
@@ -3910,23 +2285,26 @@
       <c r="AU10" s="44"/>
       <c r="AV10" s="44"/>
       <c r="AW10" s="44"/>
-    </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="50">
-        <v>855250</v>
+      <c r="AX10" s="46"/>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" s="43">
+        <v>288531</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="C11" s="44">
+        <v>3679</v>
+      </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="46">
         <v>727</v>
       </c>
@@ -3936,7 +2314,7 @@
       <c r="L11" s="46">
         <v>320</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="46">
         <v>2</v>
       </c>
       <c r="N11" s="46">
@@ -3950,12 +2328,12 @@
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="44">
-        <v>1</v>
-      </c>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
+      <c r="U11" s="46">
+        <v>1</v>
+      </c>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
       <c r="AA11" s="44"/>
@@ -3963,12 +2341,20 @@
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
       <c r="AE11" s="44"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
+      <c r="AF11" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="44">
+        <v>727</v>
+      </c>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL11" s="44"/>
       <c r="AM11" s="44"/>
       <c r="AN11" s="44"/>
@@ -3981,19 +2367,24 @@
       <c r="AU11" s="44"/>
       <c r="AV11" s="44"/>
       <c r="AW11" s="44"/>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="AX11" s="44"/>
+    </row>
+    <row r="12" spans="1:50">
       <c r="A12" s="50">
-        <v>288803</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>135</v>
+        <v>127908</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="46">
         <v>369</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>111</v>
+      </c>
       <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
@@ -4036,12 +2427,20 @@
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="44"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
+      <c r="AF12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="48">
+        <v>1</v>
+      </c>
       <c r="AH12" s="48"/>
       <c r="AI12" s="48"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
+      <c r="AJ12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL12" s="44"/>
       <c r="AM12" s="44"/>
       <c r="AN12" s="44"/>
@@ -4054,13 +2453,14 @@
       <c r="AU12" s="44"/>
       <c r="AV12" s="44"/>
       <c r="AW12" s="44"/>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="AX12" s="44"/>
+    </row>
+    <row r="13" spans="1:50">
       <c r="A13" s="50">
-        <v>127909</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>138</v>
+        <v>855250</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -4068,9 +2468,9 @@
       <c r="F13" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="46">
         <v>727</v>
       </c>
@@ -4080,7 +2480,7 @@
       <c r="L13" s="46">
         <v>320</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="44">
         <v>2</v>
       </c>
       <c r="N13" s="46">
@@ -4093,21 +2493,13 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="44" t="s">
-        <v>113</v>
-      </c>
+      <c r="T13" s="44"/>
       <c r="U13" s="44">
-        <v>2</v>
-      </c>
-      <c r="V13" s="44">
-        <v>98</v>
-      </c>
-      <c r="W13" s="44">
-        <v>2</v>
-      </c>
-      <c r="X13" s="48" t="s">
-        <v>139</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
@@ -4115,22 +2507,12 @@
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
-      <c r="AF13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="48">
-        <v>727</v>
-      </c>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
       <c r="AI13" s="48"/>
-      <c r="AJ13" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK13" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
       <c r="AL13" s="44"/>
       <c r="AM13" s="44"/>
       <c r="AN13" s="44"/>
@@ -4143,15 +2525,18 @@
       <c r="AU13" s="44"/>
       <c r="AV13" s="44"/>
       <c r="AW13" s="44"/>
-    </row>
-    <row r="14" spans="1:49">
-      <c r="A14" s="51">
-        <v>899828</v>
+      <c r="AX13" s="44"/>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" s="50">
+        <v>288803</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="44"/>
+        <v>135</v>
+      </c>
+      <c r="C14" s="46">
+        <v>369</v>
+      </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="45" t="s">
@@ -4178,7 +2563,7 @@
       <c r="O14" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="44"/>
+      <c r="P14" s="46"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
@@ -4191,17 +2576,13 @@
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
       <c r="Z14" s="46"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
-      <c r="AF14" s="48">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="48">
-        <v>1</v>
-      </c>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
       <c r="AJ14" s="45"/>
@@ -4218,13 +2599,14 @@
       <c r="AU14" s="44"/>
       <c r="AV14" s="44"/>
       <c r="AW14" s="44"/>
-    </row>
-    <row r="15" spans="1:49">
-      <c r="A15" s="51">
-        <v>828096</v>
+      <c r="AX14" s="44"/>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15" s="50">
+        <v>127909</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -4257,15 +2639,23 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="46">
-        <v>1</v>
-      </c>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
+      <c r="T15" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="44">
+        <v>2</v>
+      </c>
+      <c r="V15" s="44">
+        <v>98</v>
+      </c>
+      <c r="W15" s="44">
+        <v>2</v>
+      </c>
+      <c r="X15" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
@@ -4277,17 +2667,19 @@
       <c r="AG15" s="48">
         <v>1</v>
       </c>
-      <c r="AH15" s="48"/>
+      <c r="AH15" s="48">
+        <v>727</v>
+      </c>
       <c r="AI15" s="48"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
+      <c r="AJ15" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK15" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL15" s="44"/>
-      <c r="AM15" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN15" s="44">
-        <v>1</v>
-      </c>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
       <c r="AO15" s="44"/>
       <c r="AP15" s="44"/>
       <c r="AQ15" s="44"/>
@@ -4297,13 +2689,14 @@
       <c r="AU15" s="44"/>
       <c r="AV15" s="44"/>
       <c r="AW15" s="44"/>
-    </row>
-    <row r="16" spans="1:49">
+      <c r="AX15" s="44"/>
+    </row>
+    <row r="16" spans="1:50">
       <c r="A16" s="51">
-        <v>127764</v>
+        <v>899828</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -4356,16 +2749,10 @@
       <c r="AG16" s="48">
         <v>1</v>
       </c>
-      <c r="AH16" s="48">
-        <v>727</v>
-      </c>
+      <c r="AH16" s="48"/>
       <c r="AI16" s="48"/>
-      <c r="AJ16" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK16" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
@@ -4378,13 +2765,14 @@
       <c r="AU16" s="44"/>
       <c r="AV16" s="44"/>
       <c r="AW16" s="44"/>
-    </row>
-    <row r="17" spans="1:49">
+      <c r="AX16" s="44"/>
+    </row>
+    <row r="17" spans="1:50">
       <c r="A17" s="51">
-        <v>127849</v>
+        <v>828096</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -4443,7 +2831,7 @@
       <c r="AK17" s="45"/>
       <c r="AL17" s="44"/>
       <c r="AM17" s="48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN17" s="44">
         <v>1</v>
@@ -4457,13 +2845,14 @@
       <c r="AU17" s="44"/>
       <c r="AV17" s="44"/>
       <c r="AW17" s="44"/>
-    </row>
-    <row r="18" spans="1:49">
+      <c r="AX17" s="44"/>
+    </row>
+    <row r="18" spans="1:50">
       <c r="A18" s="51">
-        <v>127772</v>
+        <v>127764</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -4516,10 +2905,16 @@
       <c r="AG18" s="48">
         <v>1</v>
       </c>
-      <c r="AH18" s="48"/>
+      <c r="AH18" s="48">
+        <v>727</v>
+      </c>
       <c r="AI18" s="48"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
+      <c r="AJ18" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK18" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
@@ -4532,13 +2927,14 @@
       <c r="AU18" s="44"/>
       <c r="AV18" s="44"/>
       <c r="AW18" s="44"/>
-    </row>
-    <row r="19" spans="1:49">
+      <c r="AX18" s="44"/>
+    </row>
+    <row r="19" spans="1:50">
       <c r="A19" s="51">
-        <v>127842</v>
+        <v>127849</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -4591,19 +2987,17 @@
       <c r="AG19" s="48">
         <v>1</v>
       </c>
-      <c r="AH19" s="48">
-        <v>727</v>
-      </c>
+      <c r="AH19" s="48"/>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK19" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
+      <c r="AM19" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN19" s="44">
+        <v>1</v>
+      </c>
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
@@ -4613,13 +3007,14 @@
       <c r="AU19" s="44"/>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
-    </row>
-    <row r="20" spans="1:49">
+      <c r="AX19" s="44"/>
+    </row>
+    <row r="20" spans="1:50">
       <c r="A20" s="51">
-        <v>1108920</v>
+        <v>127772</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -4666,51 +3061,36 @@
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="44"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
+      <c r="AF20" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="48">
+        <v>1</v>
+      </c>
       <c r="AH20" s="48"/>
       <c r="AI20" s="48"/>
-      <c r="AJ20" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK20" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
-      <c r="AO20" s="44">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="44">
-        <v>1234</v>
-      </c>
-      <c r="AQ20" s="44">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="44">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="44">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="44">
-        <v>999</v>
-      </c>
-      <c r="AU20" s="44">
-        <v>11</v>
-      </c>
-      <c r="AV20" s="44">
-        <v>456</v>
-      </c>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
       <c r="AW20" s="44"/>
-    </row>
-    <row r="21" spans="1:49">
+      <c r="AX20" s="44"/>
+    </row>
+    <row r="21" spans="1:50">
       <c r="A21" s="51">
-        <v>1159358</v>
+        <v>127842</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -4763,10 +3143,16 @@
       <c r="AG21" s="48">
         <v>1</v>
       </c>
-      <c r="AH21" s="48"/>
+      <c r="AH21" s="48">
+        <v>727</v>
+      </c>
       <c r="AI21" s="48"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
+      <c r="AJ21" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK21" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
       <c r="AN21" s="44"/>
@@ -4779,29 +3165,50 @@
       <c r="AU21" s="44"/>
       <c r="AV21" s="44"/>
       <c r="AW21" s="44"/>
-    </row>
-    <row r="22" spans="1:49">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
+      <c r="AX21" s="44"/>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="51">
+        <v>1108920</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="47"/>
+      <c r="J22" s="46">
+        <v>727</v>
+      </c>
+      <c r="K22" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L22" s="46">
+        <v>320</v>
+      </c>
+      <c r="M22" s="46">
+        <v>2</v>
+      </c>
+      <c r="N22" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="46"/>
+      <c r="U22" s="46">
+        <v>1</v>
+      </c>
       <c r="V22" s="46"/>
       <c r="W22" s="46"/>
       <c r="X22" s="46"/>
@@ -4816,43 +3223,84 @@
       <c r="AG22" s="48"/>
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
+      <c r="AJ22" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK22" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
+      <c r="AO22" s="44">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="44">
+        <v>1234</v>
+      </c>
+      <c r="AQ22" s="44">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="44">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="44">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="44">
+        <v>999</v>
+      </c>
+      <c r="AU22" s="44">
+        <v>11</v>
+      </c>
+      <c r="AV22" s="44">
+        <v>456</v>
+      </c>
       <c r="AW22" s="44"/>
-    </row>
-    <row r="23" spans="1:49">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="AX22" s="44"/>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="51">
+        <v>1159358</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
+      <c r="F23" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
+      <c r="J23" s="46">
+        <v>727</v>
+      </c>
+      <c r="K23" s="46">
+        <v>1529</v>
+      </c>
+      <c r="L23" s="46">
+        <v>320</v>
+      </c>
+      <c r="M23" s="46">
+        <v>2</v>
+      </c>
+      <c r="N23" s="46">
+        <v>10000</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>115</v>
+      </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
-      <c r="U23" s="46"/>
+      <c r="U23" s="46">
+        <v>1</v>
+      </c>
       <c r="V23" s="46"/>
       <c r="W23" s="46"/>
       <c r="X23" s="46"/>
@@ -4863,8 +3311,12 @@
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
+      <c r="AF23" s="48">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="48">
+        <v>1</v>
+      </c>
       <c r="AH23" s="48"/>
       <c r="AI23" s="48"/>
       <c r="AJ23" s="45"/>
@@ -4881,8 +3333,9 @@
       <c r="AU23" s="44"/>
       <c r="AV23" s="44"/>
       <c r="AW23" s="44"/>
-    </row>
-    <row r="24" spans="1:49">
+      <c r="AX23" s="44"/>
+    </row>
+    <row r="24" spans="1:50">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="44"/>
@@ -4932,8 +3385,9 @@
       <c r="AU24" s="44"/>
       <c r="AV24" s="44"/>
       <c r="AW24" s="44"/>
-    </row>
-    <row r="25" spans="1:49">
+      <c r="AX24" s="44"/>
+    </row>
+    <row r="25" spans="1:50">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="44"/>
@@ -4983,9 +3437,2225 @@
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="35"/>
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="6"/>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="9"/>
+      <c r="B5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="6.9480314960629919" bottom="6.9480314960629919" header="6.7511811023622039" footer="6.7511811023622039"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="39">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="39">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
+    <col min="22" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16.5" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="43">
+        <v>1105454</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44">
+        <v>19</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46">
+        <v>727</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46">
+        <v>2</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="44"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="43">
+        <v>1038991</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46">
+        <v>727</v>
+      </c>
+      <c r="L3" s="46">
+        <v>369</v>
+      </c>
+      <c r="M3" s="46">
+        <v>320</v>
+      </c>
+      <c r="N3" s="46">
+        <v>2</v>
+      </c>
+      <c r="O3" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44">
+        <v>1000</v>
+      </c>
+      <c r="T3" s="44">
+        <v>1000</v>
+      </c>
+      <c r="U3" s="44"/>
+      <c r="V3" s="46">
+        <v>1</v>
+      </c>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46">
+        <v>1000</v>
+      </c>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="43">
+        <v>665893</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45">
+        <v>3561</v>
+      </c>
+      <c r="J4" s="52">
+        <v>44200</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="44"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="43">
+        <v>592970</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="46">
+        <v>369</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46">
+        <v>727</v>
+      </c>
+      <c r="L5" s="46">
+        <v>369</v>
+      </c>
+      <c r="M5" s="46">
+        <v>320</v>
+      </c>
+      <c r="N5" s="46">
+        <v>2</v>
+      </c>
+      <c r="O5" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="46">
+        <v>1</v>
+      </c>
+      <c r="W5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="44"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="46">
+        <v>369</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46">
+        <v>727</v>
+      </c>
+      <c r="L6" s="46">
+        <v>369</v>
+      </c>
+      <c r="M6" s="46">
+        <v>320</v>
+      </c>
+      <c r="N6" s="46">
+        <v>2</v>
+      </c>
+      <c r="O6" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="46">
+        <v>1</v>
+      </c>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="44"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46">
+        <v>727</v>
+      </c>
+      <c r="L7" s="46">
+        <v>369</v>
+      </c>
+      <c r="M7" s="46">
+        <v>320</v>
+      </c>
+      <c r="N7" s="46">
+        <v>2</v>
+      </c>
+      <c r="O7" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46">
+        <v>2</v>
+      </c>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46">
+        <v>2</v>
+      </c>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
+        <v>3679</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="50"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46">
+        <v>369</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46">
+        <v>727</v>
+      </c>
+      <c r="L10" s="46">
+        <v>369</v>
+      </c>
+      <c r="M10" s="46">
+        <v>320</v>
+      </c>
+      <c r="N10" s="46">
+        <v>2</v>
+      </c>
+      <c r="O10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="46">
+        <v>1</v>
+      </c>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="50"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="48">
+        <v>1349</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44">
+        <v>2</v>
+      </c>
+      <c r="O11" s="44">
+        <v>500</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46">
+        <v>369</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46">
+        <v>727</v>
+      </c>
+      <c r="L12" s="46">
+        <v>369</v>
+      </c>
+      <c r="M12" s="46">
+        <v>320</v>
+      </c>
+      <c r="N12" s="46">
+        <v>2</v>
+      </c>
+      <c r="O12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="46">
+        <v>1</v>
+      </c>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44">
+        <v>3455</v>
+      </c>
+      <c r="AC12" s="44">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46">
+        <v>727</v>
+      </c>
+      <c r="L13" s="46">
+        <v>369</v>
+      </c>
+      <c r="M13" s="46">
+        <v>320</v>
+      </c>
+      <c r="N13" s="46">
+        <v>2</v>
+      </c>
+      <c r="O13" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46">
+        <v>727</v>
+      </c>
+      <c r="L14" s="46">
+        <v>369</v>
+      </c>
+      <c r="M14" s="46">
+        <v>320</v>
+      </c>
+      <c r="N14" s="46">
+        <v>2</v>
+      </c>
+      <c r="O14" s="46">
+        <v>10000</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="46">
+        <v>1</v>
+      </c>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="167">
   <si>
     <t>Password</t>
   </si>
@@ -1183,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1429,7 +1429,7 @@
     <col min="30" max="30" width="19.42578125" customWidth="1"/>
     <col min="32" max="32" width="19.140625" customWidth="1"/>
     <col min="33" max="33" width="19" customWidth="1"/>
-    <col min="34" max="34" width="24.85546875" customWidth="1"/>
+    <col min="34" max="34" width="29.85546875" customWidth="1"/>
     <col min="35" max="35" width="13.85546875" customWidth="1"/>
     <col min="37" max="37" width="29.140625" customWidth="1"/>
     <col min="38" max="38" width="26.140625" customWidth="1"/>
@@ -1947,10 +1947,14 @@
       <c r="AG6" s="48">
         <v>1</v>
       </c>
-      <c r="AH6" s="48"/>
+      <c r="AH6" s="48">
+        <v>727</v>
+      </c>
       <c r="AI6" s="48"/>
       <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
+      <c r="AK6" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="AL6" s="45"/>
       <c r="AM6" s="45"/>
       <c r="AN6" s="45"/>
@@ -3622,7 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
